--- a/yield_prediction/results/graph_descriptors/WLlinear_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.64</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.607</v>
+        <v>15.624</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.569</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.449</v>
+        <v>15.755</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.887</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.081</v>
+        <v>4.515</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.092540137843834</v>
+        <v>11.25825699795137</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.17459932829988</v>
+        <v>5.957829047706543</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.74685515501827</v>
+        <v>14.2725284622379</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.219648050489397</v>
+        <v>2.850797987700023</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.709803423786749</v>
+        <v>8.227538891717547</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.755062485332722</v>
+        <v>8.730739387803464</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.46241410232998</v>
+        <v>7.520159516589953</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8.573144228224646</v>
+        <v>21.696353248597</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12.17863105728821</v>
+        <v>21.71002691925201</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.695104288050775</v>
+        <v>4.838998703200975</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>7.015992711034787</v>
+        <v>8.848427819770915</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9.205317975184716</v>
+        <v>8.601112440556161</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.557280201939921</v>
+        <v>14.1871322643326</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.06309332497191278</v>
+        <v>0.2565892875413773</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.350585905268051</v>
+        <v>10.23639957785074</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.90571579319836</v>
+        <v>12.51671906635337</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>12.85870784727919</v>
+        <v>16.86636302712791</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.68834886833267</v>
+        <v>24.54714774533115</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.9477399280808392</v>
+        <v>7.751390365065706</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.263848263564324</v>
+        <v>7.562888711674898</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7.865393424354547</v>
+        <v>11.6941478797929</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3572421416919802</v>
+        <v>0.9053747678344344</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.328401954934744</v>
+        <v>9.799537416775795</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.457904839578703</v>
+        <v>16.7720111352851</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>20.72483530803047</v>
+        <v>18.43855653903422</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.45258366866184</v>
+        <v>16.90822620086835</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.198989381428909</v>
+        <v>1.853352748458775</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.35500747125297</v>
+        <v>23.52713408259977</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.17911716360732</v>
+        <v>22.55454357709485</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.65746822538349</v>
+        <v>4.85178933578494</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.05711718401054</v>
+        <v>34.48873268019537</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27.7916354426143</v>
+        <v>27.76494497517684</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.45022709654673</v>
+        <v>31.10785845662361</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.7767111692221</v>
+        <v>39.45206481724341</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.77165641621437</v>
+        <v>40.88398741860392</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.05459499189142</v>
+        <v>20.24831881146411</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.29717085136064</v>
+        <v>25.23170119243752</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27.25471880521559</v>
+        <v>26.37096686990906</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.683277898983835</v>
+        <v>15.28528916742796</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>20.66243707496885</v>
+        <v>20.72152527186142</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>27.23507065398861</v>
+        <v>24.85836443362129</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.537145721417755</v>
+        <v>5.512768468178908</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>17.36728865420458</v>
+        <v>18.00546380774745</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.81020619244237</v>
+        <v>28.81950690061536</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.47430542726153</v>
+        <v>32.13686961562695</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.035167313052749</v>
+        <v>9.74717999729479</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15.96606504639029</v>
+        <v>16.11000163837162</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>19.26328815874004</v>
+        <v>19.41738063966353</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.577863151223688</v>
+        <v>1.002081590681176</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>19.48576456775732</v>
+        <v>25.43139490392651</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.21957376848817</v>
+        <v>29.22914782151174</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.66545950396182</v>
+        <v>7.408615461379842</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.7352523001517</v>
+        <v>37.83449989165818</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.06314791589735</v>
+        <v>38.13017627771487</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.39011366768613</v>
+        <v>36.84520773356756</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.35955805640467</v>
+        <v>41.26422077039133</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.21072944126433</v>
+        <v>45.9993576654398</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.791678473941904</v>
+        <v>11.65949310515877</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.83315286049749</v>
+        <v>21.08246316825729</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.38012293482887</v>
+        <v>25.09656644915539</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.299006313543082</v>
+        <v>12.28848325616917</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16.0459629235265</v>
+        <v>19.62973207993888</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.71120277390564</v>
+        <v>27.11837532059245</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-2.29420277334933</v>
+        <v>3.751155599981029</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>14.40540183239121</v>
+        <v>16.53553432781849</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.48282860166359</v>
+        <v>33.06202843328185</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.009942352405272</v>
+        <v>1.822755676132392</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.89408290817538</v>
+        <v>29.46993334374116</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-2.028168446329236</v>
+        <v>2.816502663014024</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.71477583063995</v>
+        <v>10.08852907159819</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.66830757642681</v>
+        <v>16.63270098329036</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.241380834110654</v>
+        <v>-0.04796081772936489</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>16.67162136213581</v>
+        <v>22.26749373834911</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23.41346164767952</v>
+        <v>26.7429591931639</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>8.324241156278269</v>
+        <v>0.5734666655716829</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.18572700240711</v>
+        <v>32.10154211351389</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>27.19464163144662</v>
+        <v>35.15106582923696</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>18.63677252407153</v>
+        <v>26.66816071978105</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.93287762014132</v>
+        <v>30.60445157303166</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.03389925227692</v>
+        <v>32.97057807178248</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7.407811328295121</v>
+        <v>5.815250822595065</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.35038024493357</v>
+        <v>11.89675905737457</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23.30464314638409</v>
+        <v>24.41862645524576</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1.718264040475933</v>
+        <v>6.469830680652212</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>14.66398715937897</v>
+        <v>20.38396910958698</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.70270750075007</v>
+        <v>28.16411735460619</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.5781465498143525</v>
+        <v>5.678962114700997</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15.23801591395927</v>
+        <v>20.51039989548521</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.87078604931684</v>
+        <v>30.74081862016241</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4.60989674317425</v>
+        <v>-0.1306807103894805</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.67604778666588</v>
+        <v>26.92400423379524</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>8.212273362564151</v>
+        <v>15.30147595604109</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.268097963511085</v>
+        <v>13.20438246663779</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13.45101245246384</v>
+        <v>30.8960462651221</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>18.79405375974004</v>
+        <v>31.1376823478177</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3.355730618150904</v>
+        <v>4.576482007233185</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.485312412322525</v>
+        <v>7.327841923634789</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>8.930381863944039</v>
+        <v>14.1223541156049</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>13.97262577345456</v>
+        <v>13.83459362776908</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.07086091236907</v>
+        <v>16.9497560918623</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.18558141588702</v>
+        <v>27.04429004979982</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-1.998567790782158</v>
+        <v>4.679232293376945</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.509905392117712</v>
+        <v>5.876822701997174</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.69909794748954</v>
+        <v>9.378632103178919</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4.639621618220954</v>
+        <v>2.704316709327433</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>7.766678169756229</v>
+        <v>13.66985928614381</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>15.9568860709155</v>
+        <v>27.81837979946561</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>16.48693773498348</v>
+        <v>16.1231712276673</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.90174734434262</v>
+        <v>35.63528028337068</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.8856338667489</v>
+        <v>38.75976781096742</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4.218125709238112</v>
+        <v>4.532638529548823</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>7.426886916305367</v>
+        <v>9.94133125874669</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18.08858697186625</v>
+        <v>18.35322795187992</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.10808110037366</v>
+        <v>41.18820795339495</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.84330564144104</v>
+        <v>37.70565091312744</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>37.1053734763107</v>
+        <v>48.22302979571309</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.24632074939132</v>
+        <v>53.38217391111661</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.71942612632552</v>
+        <v>18.01000689982305</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>35.66669819518938</v>
+        <v>44.86534737805931</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>38.98462491941497</v>
+        <v>46.69232261601557</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>14.44520924842383</v>
+        <v>26.51384929331444</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.59980253570576</v>
+        <v>32.91838874669126</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.1637019336063</v>
+        <v>37.9607396992337</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.650712445506468</v>
+        <v>10.1521102329549</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.34156993842302</v>
+        <v>30.80072349920494</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.77459680056208</v>
+        <v>36.12759369340154</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>23.32556616778219</v>
+        <v>9.247309817198133</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.6583455551946</v>
+        <v>50.22180597090262</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>49.28330579723834</v>
+        <v>59.80854765131853</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>60.97467514345128</v>
+        <v>66.05554348954757</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>65.62317359267153</v>
+        <v>72.17662732386793</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>70.76433104874354</v>
+        <v>77.71656638294192</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.08155549572016</v>
+        <v>35.11005987364928</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>56.97326259125283</v>
+        <v>64.34880743529661</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>63.1722051379904</v>
+        <v>68.83410579196942</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>33.65853642847573</v>
+        <v>48.21074940592824</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.97221192826651</v>
+        <v>30.51243808203399</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.13063717783173</v>
+        <v>36.12344467656698</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.47563179059875</v>
+        <v>52.28298123361408</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>8.115412045764916</v>
+        <v>13.04714442243484</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>31.32814921557932</v>
+        <v>41.07495547277162</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>38.6903322343482</v>
+        <v>46.57223638829251</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>8.331665892244512</v>
+        <v>20.38069354986344</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.08409389661241</v>
+        <v>30.14856628156445</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.18021719791567</v>
+        <v>39.64000644322344</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3.439243473807178</v>
+        <v>7.934372894832936</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.07191559015874</v>
+        <v>30.7131655238791</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.50486895413766</v>
+        <v>42.18803577473685</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>21.22280932133185</v>
+        <v>7.137302412732314</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>43.17758985056351</v>
+        <v>49.42895773757429</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>53.36763260035201</v>
+        <v>67.30968387495244</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>60.60476317643365</v>
+        <v>62.33465642634491</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>63.53627112976461</v>
+        <v>65.592098557429</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>72.34751836999742</v>
+        <v>79.48949039286293</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.36822689528242</v>
+        <v>25.47988253042096</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>55.98861248541544</v>
+        <v>56.68531937238656</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>65.7868012796819</v>
+        <v>67.60185389439786</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.82675863579617</v>
+        <v>43.16643993332593</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>12.29455251349683</v>
+        <v>19.07873311454928</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>20.09435399232553</v>
+        <v>24.97913175826965</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.83507004533175</v>
+        <v>35.11036862062792</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5.33534035316811</v>
+        <v>9.646113802753174</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.1019633923172</v>
+        <v>36.65905849088489</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.59569352166649</v>
+        <v>43.16957020572897</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>10.1176287141773</v>
+        <v>13.56071355123433</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.76164333867275</v>
+        <v>32.30836494323529</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.03887536903952</v>
+        <v>43.64762371921715</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6.174959037734521</v>
+        <v>9.312636204642079</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.28763202694788</v>
+        <v>32.51797312005942</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>43.45531571092471</v>
+        <v>42.69149728531497</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>17.76600197684099</v>
+        <v>4.290466882158658</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.58345303023064</v>
+        <v>44.9340297463592</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>50.99349938131782</v>
+        <v>64.69442176905198</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45.7447174788513</v>
+        <v>49.98228571587808</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>53.45690633510324</v>
+        <v>57.91985224955101</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>68.70518628547183</v>
+        <v>77.31441706050572</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>16.392289990251</v>
+        <v>15.49367602020383</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45.3271270837287</v>
+        <v>52.20633574530019</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>62.4605517975664</v>
+        <v>67.58036240050646</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>12.4475762613538</v>
+        <v>4.994860800984029</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.14410570980044</v>
+        <v>18.42885264291763</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.3724792331001</v>
+        <v>32.58233833862865</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>11.74493151721744</v>
+        <v>2.508330585012015</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>34.04948306595595</v>
+        <v>28.60156790361929</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.70532628734708</v>
+        <v>33.89588204628338</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.10089089215358</v>
+        <v>8.326013737161862</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>46.98064781590541</v>
+        <v>54.81430022099617</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>50.23905336751571</v>
+        <v>58.77821530752969</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.04900019840913</v>
+        <v>22.3973986959362</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>44.3691112911082</v>
+        <v>30.34089606705549</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.21773358094552</v>
+        <v>34.71338430207103</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>20.77346339921483</v>
+        <v>21.3707456324181</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>32.71878056099276</v>
+        <v>6.643334899275683</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.26219218459261</v>
+        <v>32.65727370566565</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.04938285628159</v>
+        <v>11.39034189864208</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.0439776829144</v>
+        <v>32.29867939029339</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.84008551792274</v>
+        <v>28.50060445512966</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>14.36256845628965</v>
+        <v>2.587412233025166</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>31.34260111323347</v>
+        <v>24.99636828771055</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.11171153868336</v>
+        <v>20.13526679766912</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.25556584356577</v>
+        <v>2.645583734703603</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>41.38964827691166</v>
+        <v>38.92804081771038</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>12.01652678372643</v>
+        <v>18.24946604282161</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.58233312538795</v>
+        <v>38.6976435327567</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>41.57105405406332</v>
+        <v>41.64945551840106</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15.76667300031177</v>
+        <v>6.712134470445822</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>50.37970495402409</v>
+        <v>48.86724137818732</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>49.23452218283848</v>
+        <v>49.94212951711498</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.63434340832087</v>
+        <v>11.78368541171709</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>64.48448895508209</v>
+        <v>73.58732559602785</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>63.4638024340066</v>
+        <v>67.41039920784119</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>61.42984762216392</v>
+        <v>58.10253909542642</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>68.54707835100405</v>
+        <v>69.24561295301041</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>67.7138597794889</v>
+        <v>69.02118245084503</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.86960331171972</v>
+        <v>24.89379118617337</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>56.35778811185484</v>
+        <v>31.25301937958302</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>57.30186687021671</v>
+        <v>37.7268106618934</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>18.49449390066061</v>
+        <v>26.31091615450735</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>45.38529222946451</v>
+        <v>46.99812900375517</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>43.88273687004517</v>
+        <v>38.59916945253327</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>17.42401886090643</v>
+        <v>4.933910398235245</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47.87543412578145</v>
+        <v>39.98446527150267</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>46.17392505756251</v>
+        <v>35.44658919611051</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>36.05991296299793</v>
+        <v>10.0918253032596</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>63.20086363968612</v>
+        <v>64.71287940372957</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>5.447330092963107</v>
+        <v>3.749599108128532</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.21413134160716</v>
+        <v>26.56933828395321</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>37.25945853141032</v>
+        <v>33.02403017566172</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>12.78318745895777</v>
+        <v>-0.1457680367910577</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.62382810259474</v>
+        <v>42.32019663644506</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>48.80756731164162</v>
+        <v>47.20654386138713</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>30.70185834878044</v>
+        <v>6.636441339432295</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>61.75486856285303</v>
+        <v>66.65756411291719</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>62.80991993591138</v>
+        <v>65.61126207811988</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>60.92213189511722</v>
+        <v>64.57030903938282</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>66.57800988773046</v>
+        <v>73.26851487665452</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>68.04962674978827</v>
+        <v>72.23467475570071</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.95617858701342</v>
+        <v>7.073037721224086</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>49.71117493784033</v>
+        <v>17.08400121020628</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>52.39958723931875</v>
+        <v>23.77246802821319</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>12.98762961457122</v>
+        <v>20.26787439136696</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.35724567289819</v>
+        <v>40.22912109670322</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>42.25745449805919</v>
+        <v>35.85552794920262</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.02814212003563</v>
+        <v>0.8768066117116255</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.0217754827021</v>
+        <v>33.89803758373517</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>46.17359140565827</v>
+        <v>34.68534178220031</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>32.60077486509641</v>
+        <v>6.770086498219303</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>60.22499748563745</v>
+        <v>56.22208939630069</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3.844356033859356</v>
+        <v>0.3390723035005934</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>32.43254625620505</v>
+        <v>24.51582293283748</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.53159232712848</v>
+        <v>34.30540562156952</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.36950007588565</v>
+        <v>3.679781681087182</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>45.74305929444601</v>
+        <v>43.48249013281816</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>50.38486102042297</v>
+        <v>50.66501324518288</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.95140677752484</v>
+        <v>6.845263468571094</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.80553937980434</v>
+        <v>66.63806418085902</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>61.94271693296146</v>
+        <v>69.18758726090714</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>52.73737114184799</v>
+        <v>62.97874953536849</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>60.14272407747161</v>
+        <v>71.77569393891729</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>64.28357737428858</v>
+        <v>70.68569372268217</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>18.31638256088539</v>
+        <v>7.164122976794655</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>46.10194145613893</v>
+        <v>15.32478742295149</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>53.81365099828146</v>
+        <v>32.50999819023694</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>11.79959823800195</v>
+        <v>11.99217942618838</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.1250308094172</v>
+        <v>37.7003132397016</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>40.85408890604573</v>
+        <v>34.48869823113453</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>13.44145988378371</v>
+        <v>3.148433242460687</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>42.12023894289057</v>
+        <v>36.18022249040698</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>46.34306249981317</v>
+        <v>35.58079004645117</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.46741428670952</v>
+        <v>4.502216078956966</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>53.02843735050915</v>
+        <v>51.75233633237788</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>41.18385939977273</v>
+        <v>33.50994438219074</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>39.96201949092776</v>
+        <v>30.49178843430247</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>53.05169227204448</v>
+        <v>46.00992808370896</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>53.65967256849193</v>
+        <v>44.60334925870943</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.33000699363872</v>
+        <v>22.85358003851411</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>43.55061434074193</v>
+        <v>32.80488991362067</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>43.10013945520301</v>
+        <v>40.58340099009733</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.03215557419054</v>
+        <v>14.3049775153875</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>38.27520298102267</v>
+        <v>29.60911703763982</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>42.76122776410543</v>
+        <v>38.77861021823409</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>10.27143965763776</v>
+        <v>3.916283246420196</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.6652327947726</v>
+        <v>23.1618548401264</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.7452531752719</v>
+        <v>28.05544557848285</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.4407897098993</v>
+        <v>8.367485885405419</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>42.83493848590157</v>
+        <v>43.02843974880524</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>47.36269463071133</v>
+        <v>59.31960922175273</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>46.33627350833216</v>
+        <v>37.402605588559</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>61.74639565702181</v>
+        <v>52.91651321786749</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>64.39377402384319</v>
+        <v>54.95854663713284</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.58944164933873</v>
+        <v>22.67042010273673</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>44.95429296511209</v>
+        <v>39.07840005367385</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>51.33093899123848</v>
+        <v>55.19345176524766</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>61.68433072012142</v>
+        <v>58.69991530892155</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>66.14258548354739</v>
+        <v>61.24063921704283</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>75.22597118289103</v>
+        <v>69.39556394413876</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>74.96254026281116</v>
+        <v>67.19661896312235</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>39.56061985543759</v>
+        <v>33.80816149201573</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>73.26562420012897</v>
+        <v>64.84849395603759</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>67.92152485296268</v>
+        <v>59.45187985998953</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.17256552354138</v>
+        <v>26.75916895187751</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>14.3957662140297</v>
+        <v>6.622727247013987</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>50.61178298631104</v>
+        <v>44.86747590610408</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>51.20878166338431</v>
+        <v>42.83847303486809</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.10607734284885</v>
+        <v>10.51005248955173</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>70.38494242589083</v>
+        <v>71.30897685884649</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>70.91703958812481</v>
+        <v>74.47392499951727</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>81.18817773882807</v>
+        <v>74.2708931042647</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>90.88924517878515</v>
+        <v>79.40872031604171</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>90.23678066402886</v>
+        <v>80.17913240102172</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>41.83598026996785</v>
+        <v>38.53814892341659</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>84.21391447591269</v>
+        <v>77.708461572323</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.02250643050792</v>
+        <v>77.9413119868705</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>62.14288305260536</v>
+        <v>59.2291452841298</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>61.77040343271989</v>
+        <v>58.95922735586316</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>68.81587005190386</v>
+        <v>63.11150873633905</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>72.06316784893099</v>
+        <v>66.90008723396393</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.9657724451339</v>
+        <v>25.81817758067386</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>67.63403012372592</v>
+        <v>58.48317198785172</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>65.27831416373459</v>
+        <v>54.91802299801252</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.20700222771471</v>
+        <v>18.23804247587518</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.43750449676271</v>
+        <v>37.45135502411932</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>48.654605111564</v>
+        <v>39.23096759141681</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>8.936494544812252</v>
+        <v>1.814618728752098</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>47.69946567622615</v>
+        <v>39.97851397926</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>51.34254334065041</v>
+        <v>42.51401776289701</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>34.17013719742039</v>
+        <v>4.929507904123799</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>68.71906960034327</v>
+        <v>64.22843244023099</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>71.96609737693146</v>
+        <v>73.23569443911346</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>79.27911889551753</v>
+        <v>73.706619984578</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>87.28149419698445</v>
+        <v>77.26734749775964</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>89.62340712344114</v>
+        <v>81.92452753410873</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>33.46432236664793</v>
+        <v>28.22537026150137</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>81.18510725101495</v>
+        <v>70.82930704233809</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>82.3635050492002</v>
+        <v>72.79699551193856</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>56.79218510665656</v>
+        <v>54.60552100369554</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>47.39721988888802</v>
+        <v>47.62016790041791</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>57.46244451194408</v>
+        <v>51.95818734336147</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>64.39543287136853</v>
+        <v>50.54691649591412</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.45935943221383</v>
+        <v>22.69283264128743</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>60.63495682128087</v>
+        <v>55.52241735337078</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>62.85891700694101</v>
+        <v>57.0172465985237</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.39144402772459</v>
+        <v>13.51144283405473</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>46.34345380206173</v>
+        <v>41.54404070370467</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>54.26218094291957</v>
+        <v>46.11366470133342</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.61831557442409</v>
+        <v>6.165260031719885</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>48.66868824823534</v>
+        <v>44.58680631017769</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>57.63593591366491</v>
+        <v>49.43425405275318</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.80930961738937</v>
+        <v>6.632261453187557</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>65.04925126426271</v>
+        <v>64.50225449509431</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>73.04164256942973</v>
+        <v>77.23874169012358</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>69.62587831199546</v>
+        <v>72.53809164099782</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>82.61777514968149</v>
+        <v>79.54482830925402</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>91.27879085312806</v>
+        <v>84.85917545602005</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>32.7237511840223</v>
+        <v>26.82053054742964</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>75.93703254890343</v>
+        <v>77.04633358611883</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>84.86796892728117</v>
+        <v>85.0101511399822</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>12.84799437831348</v>
+        <v>12.43784471753499</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>33.56786525376101</v>
+        <v>27.53144911004977</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>35.71341024088865</v>
+        <v>33.63167783318571</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>2.103456207147055</v>
+        <v>-2.660278381895491</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.56685006210341</v>
+        <v>19.37334139085246</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.99648716597763</v>
+        <v>23.23477659393967</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.83524379067051</v>
+        <v>0.8117976913100371</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>42.7478618015504</v>
+        <v>48.74664084902932</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44.91336577648733</v>
+        <v>48.79998011807533</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.59457226479612</v>
+        <v>19.80200062193399</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.42765134094228</v>
+        <v>29.30958575689911</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>40.32808237095435</v>
+        <v>32.46040187916694</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>10.98797663388322</v>
+        <v>5.994994341760826</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.1270752992011</v>
+        <v>7.316626122959956</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>32.52763900468216</v>
+        <v>13.66191751984416</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.90171194192994</v>
+        <v>17.21332227434829</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>42.94379184944751</v>
+        <v>35.9336345130768</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>42.89358402721902</v>
+        <v>33.9977616659088</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.07255904674929</v>
+        <v>4.240448665778256</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.2387745306882</v>
+        <v>22.91530600556012</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.18191867890145</v>
+        <v>22.15952176337995</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.54774201077805</v>
+        <v>2.077141436170077</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>45.73905378210181</v>
+        <v>39.15466562549199</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.94516034226753</v>
+        <v>27.62334020389969</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>46.83055283616449</v>
+        <v>50.59810048480203</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>44.3484026715697</v>
+        <v>45.87645785687874</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.398696129618902</v>
+        <v>5.160188463121703</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.50604094857857</v>
+        <v>45.54896589094835</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.69522869645995</v>
+        <v>44.72500978098786</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.32450847544225</v>
+        <v>7.182115313751655</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>63.50651565879669</v>
+        <v>71.24774142497652</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>61.00127522801183</v>
+        <v>62.01126344918687</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>59.42912044081045</v>
+        <v>54.35545356884846</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>66.54850412037808</v>
+        <v>65.24490960850291</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>65.60833273374976</v>
+        <v>62.96627781544615</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.20256549816555</v>
+        <v>15.84705757341464</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>54.65535506241385</v>
+        <v>36.6301082045199</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>51.9656810163565</v>
+        <v>33.23739636593656</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.61295076525494</v>
+        <v>28.82010851994683</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>54.9154390066243</v>
+        <v>50.94810407879105</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>53.47333270573456</v>
+        <v>45.74159038399124</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>19.57295760660555</v>
+        <v>7.265778196115836</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>51.62298497764358</v>
+        <v>42.6375267031235</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>49.98992904202177</v>
+        <v>42.67828393271094</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>41.82390398613623</v>
+        <v>9.02557607521258</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>70.38967685736353</v>
+        <v>68.22849057581777</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>9.060362010887541</v>
+        <v>12.04669766211364</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>40.93174347447528</v>
+        <v>36.85095391271179</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>40.76359236831357</v>
+        <v>34.91480587820871</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.74229908826435</v>
+        <v>-0.5384251495700063</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>43.83377767309419</v>
+        <v>39.46456178795532</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>43.64336163938866</v>
+        <v>41.8100648363429</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.32469231274456</v>
+        <v>3.084067701384864</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>61.49255812781723</v>
+        <v>64.25236044483481</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>61.32284279163699</v>
+        <v>59.45220550600244</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>59.5613284527323</v>
+        <v>57.8737797838792</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>65.2423547588192</v>
+        <v>65.78854707392811</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>66.74505296502791</v>
+        <v>62.5512200684561</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>11.09307530935671</v>
+        <v>1.360981102286207</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>48.60254495522513</v>
+        <v>22.06741104788961</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>47.85274419560679</v>
+        <v>18.09014774678792</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.39232852467963</v>
+        <v>21.50977199081134</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>49.86306717141288</v>
+        <v>42.67973255637003</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>52.27622134496687</v>
+        <v>41.48166331384418</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>15.84333240946141</v>
+        <v>3.668667828437304</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>48.083888261639</v>
+        <v>36.58979674804917</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>50.81656874730436</v>
+        <v>41.96425098931032</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.65329421160865</v>
+        <v>6.033560151549938</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>67.38888264195134</v>
+        <v>58.96682217891565</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.827920098135429</v>
+        <v>10.56194098932977</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>38.39726064625307</v>
+        <v>37.54750032394884</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.95903215108234</v>
+        <v>38.39149886763313</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.821804737428959</v>
+        <v>5.799786754518959</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>43.30642862733382</v>
+        <v>41.88297726385061</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>47.33981513545992</v>
+        <v>48.26151259709587</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.09682326921957</v>
+        <v>6.330762672468342</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>58.94123337358788</v>
+        <v>68.33222852804523</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>62.53613835008524</v>
+        <v>65.97460130474229</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>53.27359558266826</v>
+        <v>59.94550017957621</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>60.59116139278206</v>
+        <v>69.34999619235441</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>65.03903352330035</v>
+        <v>67.35772186715067</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>13.84117852335536</v>
+        <v>7.991530324733805</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>47.05631036807659</v>
+        <v>31.38290077636819</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>51.98167904901072</v>
+        <v>28.02036998469571</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.06141661635971</v>
+        <v>17.35520656561252</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.15727775435516</v>
+        <v>42.52519003988785</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>50.98380491930772</v>
+        <v>41.68625251217038</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.6453759263069</v>
+        <v>9.052621125293587</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>46.19659617983235</v>
+        <v>39.49430939452672</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>51.66220494272987</v>
+        <v>44.20230124996142</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>33.48130259331057</v>
+        <v>7.712803812073634</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>59.81992115538587</v>
+        <v>56.48897518764412</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>45.68837890030802</v>
+        <v>38.00731493840659</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>44.83609865981846</v>
+        <v>34.03643706637894</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>58.26555258671625</v>
+        <v>51.24256169523693</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>58.74474888266305</v>
+        <v>49.87832338918987</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.64457095461854</v>
+        <v>17.57665511593093</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>46.77686381286964</v>
+        <v>32.662294954966</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>46.59519095581416</v>
+        <v>38.71887930277981</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.41917837332589</v>
+        <v>23.38871731966969</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>42.15655656535417</v>
+        <v>37.92434443407151</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>45.09764497885874</v>
+        <v>43.8925256591051</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.731109133302144</v>
+        <v>3.932500654981713</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.8170977466307</v>
+        <v>22.12972540418602</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.14761636921888</v>
+        <v>26.71349042495011</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.20345621080104</v>
+        <v>8.366489556257594</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>44.10583682283337</v>
+        <v>45.32902871129259</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>47.07428478747315</v>
+        <v>60.24205241286666</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>47.7531550029794</v>
+        <v>42.50638087029974</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>63.13003528791596</v>
+        <v>56.95001384152046</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>67.5870643262641</v>
+        <v>60.52575154045698</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.14659616736487</v>
+        <v>19.96832323528037</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.51768824125928</v>
+        <v>42.0391643549179</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.87831286240095</v>
+        <v>51.56104976914811</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>68.93415532526252</v>
+        <v>68.33361157282471</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>73.26328147411778</v>
+        <v>66.04090056624669</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>83.26018039083439</v>
+        <v>77.57212737932326</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>82.86081255836373</v>
+        <v>74.28944889098072</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>40.41313149745724</v>
+        <v>29.96755184122987</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>78.90626248192991</v>
+        <v>68.97399500360513</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>73.71448809923731</v>
+        <v>67.73582822012341</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>23.27430239316682</v>
+        <v>36.04976943714627</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>57.17415418056362</v>
+        <v>55.21797459444038</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>55.43061780290918</v>
+        <v>49.75117760928076</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>14.28396026519668</v>
+        <v>7.507232362872163</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>52.67249940685934</v>
+        <v>47.80118923578142</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.69810096705802</v>
+        <v>44.0370002386454</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.32173210498536</v>
+        <v>10.1856963913622</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>74.53693814158888</v>
+        <v>75.50550157724328</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>72.77718247162682</v>
+        <v>76.49319550798863</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>85.11048622809449</v>
+        <v>81.21924553857288</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>95.29050420680147</v>
+        <v>87.21551517689718</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>96.19204340963591</v>
+        <v>89.23747145711563</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>39.96961065816534</v>
+        <v>36.11731121483751</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>87.29885772422702</v>
+        <v>83.77603462109877</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>84.16716086056142</v>
+        <v>80.84368326686919</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>69.82448524470389</v>
+        <v>68.30378040587374</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>68.85236721494468</v>
+        <v>62.00692019255553</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>76.78154983261685</v>
+        <v>69.65843282495848</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>80.20801940757336</v>
+        <v>73.64981760101736</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.05327176369967</v>
+        <v>23.59319752798622</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>73.21541107103727</v>
+        <v>62.18911433227773</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>71.43484567766734</v>
+        <v>62.89377990902068</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.16679358556811</v>
+        <v>26.28111909618724</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>52.00224931449257</v>
+        <v>45.71169468523289</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>53.32979231407805</v>
+        <v>43.63484187778555</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>8.725372826956015</v>
+        <v>2.74551666297258</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>49.30580968363026</v>
+        <v>42.06401700930742</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>50.80913296425807</v>
+        <v>42.98783044845695</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.96745094360995</v>
+        <v>4.369484132257444</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>72.13626692753684</v>
+        <v>66.696908202657</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>73.47615943025789</v>
+        <v>73.80293812198673</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>82.51177578943965</v>
+        <v>78.11880246212324</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>91.01296939286885</v>
+        <v>82.23176615908791</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>95.17118094551664</v>
+        <v>89.83786659617822</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>31.18810812726997</v>
+        <v>27.34502846314978</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>83.58824339057222</v>
+        <v>75.42606774676889</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>83.15040639630624</v>
+        <v>74.71799517542111</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>64.69134721429087</v>
+        <v>64.48822204390626</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>54.37025500943813</v>
+        <v>51.53170948081842</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>65.05185695451596</v>
+        <v>58.94208349112237</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>72.49571222772317</v>
+        <v>59.57356686788195</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.57687374399422</v>
+        <v>24.07584585578327</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>66.63884658260766</v>
+        <v>61.6918612685531</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>69.9900708147641</v>
+        <v>63.86630748734305</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.22597453425809</v>
+        <v>21.8529422768451</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>51.43592838429635</v>
+        <v>49.92926987300397</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>58.50243198330016</v>
+        <v>50.81040630988974</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.01681239462317</v>
+        <v>8.230584354385062</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>49.49169381528449</v>
+        <v>46.28576391842154</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>57.4938748190941</v>
+        <v>51.08817671621793</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>34.75406882857283</v>
+        <v>8.172911880938091</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>67.26365660848965</v>
+        <v>68.59432084596955</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>74.39589654023465</v>
+        <v>79.33036245396879</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>71.80893027379888</v>
+        <v>75.55849958018439</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>85.14787135377564</v>
+        <v>82.14554794023725</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>96.20659136740161</v>
+        <v>91.16151548800585</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.74407679228336</v>
+        <v>26.33972445061396</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>78.03039739814064</v>
+        <v>81.935758389189</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>86.52027646888426</v>
+        <v>85.09962328637569</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.0532822779892</v>
+        <v>13.73840595547405</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>20.90932536819825</v>
+        <v>17.60454603607291</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.24119139814864</v>
+        <v>25.33947558720918</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-0.6107305388313513</v>
+        <v>0.5959001741941528</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.55035353679594</v>
+        <v>10.6305125062035</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.45580296737304</v>
+        <v>12.6641742346254</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.67247865692993</v>
+        <v>5.069794817383521</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.62020784324028</v>
+        <v>27.82177879647339</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.99237116912272</v>
+        <v>30.29948998910222</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.80172645163294</v>
+        <v>10.55058379071085</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.73115834967596</v>
+        <v>14.04540337877407</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.59625429596685</v>
+        <v>16.43130117374045</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.85666749674363</v>
+        <v>10.39830703450415</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.76029259864839</v>
+        <v>15.56938085977855</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.28832546645276</v>
+        <v>26.67074274805364</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.58983845995251</v>
+        <v>9.162155806473937</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.7082507289287</v>
+        <v>18.48721016255224</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.41406104767996</v>
+        <v>20.00968689424912</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-5.360874889050233</v>
+        <v>-0.4654243637311417</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.964908494684483</v>
+        <v>4.014243279793416</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.028995794615501</v>
+        <v>4.331141717938838</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.373100111911672</v>
+        <v>-1.325212406149976</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.57633664717347</v>
+        <v>13.69597789998724</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>9.257249797692221</v>
+        <v>15.6007552062481</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.15901421796971</v>
+        <v>23.5205591279985</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.65193195298611</v>
+        <v>23.40766212031597</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.061260029484465</v>
+        <v>-0.3518614910771696</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.59822176098264</v>
+        <v>22.82534074639321</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.15640684931171</v>
+        <v>21.5996129725038</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>18.5606403332816</v>
+        <v>4.300915583660892</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.64754143250369</v>
+        <v>38.1161166555483</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.14504454751609</v>
+        <v>34.34405509135399</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>39.86943177648358</v>
+        <v>35.02794906711196</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>43.29185330005838</v>
+        <v>39.28002401158621</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.4204562585568</v>
+        <v>38.58084699751581</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.97918453692133</v>
+        <v>18.35520737912231</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.84740440899984</v>
+        <v>42.92787275270747</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.20679280269295</v>
+        <v>44.13604514736392</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>8.032691526537427</v>
+        <v>11.93839067699959</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.84899304293846</v>
+        <v>22.63356618412547</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.92933582450463</v>
+        <v>23.13316520348524</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-2.705239974354047</v>
+        <v>-2.197550165863088</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.86735292542079</v>
+        <v>15.88166319487511</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.22315438435001</v>
+        <v>19.40919511838062</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>13.76620716452088</v>
+        <v>0.6375119973795087</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>34.77615286488792</v>
+        <v>34.59813747521935</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>2.890781651359418</v>
+        <v>7.036982313320671</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.6948084970281</v>
+        <v>16.12084576764773</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.65056541190912</v>
+        <v>19.95722406852019</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-0.1178280047584614</v>
+        <v>-1.244988890063947</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.30845469687056</v>
+        <v>21.3715799564943</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.65558408055626</v>
+        <v>24.15559812522409</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16.16096096529379</v>
+        <v>5.878688108758848</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.1492152835866</v>
+        <v>36.39106127039351</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>39.132468203719</v>
+        <v>38.58693073462628</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.51965206283181</v>
+        <v>39.78737528556879</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.61041194987388</v>
+        <v>41.57478012412223</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>44.23928966462252</v>
+        <v>42.31610553106093</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>8.386151703659603</v>
+        <v>7.002316705763885</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.28675237086758</v>
+        <v>32.59103462686998</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.76518862298438</v>
+        <v>35.35348966382854</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.842250308636562</v>
+        <v>8.094747732214618</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.85396286533578</v>
+        <v>17.27057309321426</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.95583978026408</v>
+        <v>23.18278714444292</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-6.277544511783827</v>
+        <v>-3.557165883317797</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>17.51633385013008</v>
+        <v>12.24299482370455</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.42616172357665</v>
+        <v>22.27421239093215</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>10.8932624514544</v>
+        <v>0.3888931843429653</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.10043700838565</v>
+        <v>27.58659763287596</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>1.892936406746315</v>
+        <v>1.656145530635502</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>20.13364118206421</v>
+        <v>13.45834969220428</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.21382927130034</v>
+        <v>20.75734337899</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>1.794200230962428</v>
+        <v>-2.212510845737928</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.45016101894133</v>
+        <v>17.56257049085685</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.33542824418379</v>
+        <v>25.90414256475202</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>15.61201852778312</v>
+        <v>-0.6844763718143732</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.02240793167856</v>
+        <v>32.43241478263575</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>40.15915712808224</v>
+        <v>38.27757018829054</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.99303007364806</v>
+        <v>30.43824869219084</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.49789174026365</v>
+        <v>34.77930470823242</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.06310374347285</v>
+        <v>38.12622007663633</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>9.741119271914908</v>
+        <v>2.643486377951948</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.33241136733118</v>
+        <v>28.6319944685203</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.86210379166103</v>
+        <v>36.08893758977145</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1.167157087675651</v>
+        <v>4.450555209770048</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.29104537932853</v>
+        <v>17.4400162910258</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.26517454508176</v>
+        <v>24.90916457329806</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-5.259335722577976</v>
+        <v>-0.8289812161301633</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.39675111901169</v>
+        <v>12.93513459695522</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.42673660449165</v>
+        <v>23.21584117126919</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>5.951757791704605</v>
+        <v>-0.3367699277312148</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.2535465494702</v>
+        <v>23.55409188238808</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>16.30731783649054</v>
+        <v>14.19285284654004</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.4579637771957</v>
+        <v>11.63638040626488</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.86016743979475</v>
+        <v>22.24475654199412</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.09388658372555</v>
+        <v>21.74910119794672</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.624004925585101</v>
+        <v>1.535723021710378</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>15.19629326547662</v>
+        <v>9.279859568870886</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>18.04294114646179</v>
+        <v>14.11343154759752</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.98699349212168</v>
+        <v>16.26348137930563</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.86632686129321</v>
+        <v>23.5717432433046</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.77645435869738</v>
+        <v>32.18780852872015</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-4.283824681589511</v>
+        <v>-1.419847074611138</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>9.168454015065091</v>
+        <v>6.012069632645495</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>14.72873265011007</v>
+        <v>10.64958625741305</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>11.25560794448584</v>
+        <v>4.20392586657859</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.2454491199811</v>
+        <v>24.34986405175748</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.2012532055952</v>
+        <v>36.29371645566617</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.99047950436503</v>
+        <v>24.66459004933371</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>37.84353915300979</v>
+        <v>32.35610083944947</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>41.33484142749171</v>
+        <v>36.06587274425873</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.230101007938014</v>
+        <v>7.236778141409733</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.08070276592919</v>
+        <v>17.54765914024968</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.90656342901134</v>
+        <v>27.5932564443441</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.87584808905686</v>
+        <v>38.36279569273006</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.24976438362297</v>
+        <v>35.58857803640193</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.74267251324676</v>
+        <v>42.37113605906003</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.79158251728281</v>
+        <v>38.82568103482397</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>15.93535722990793</v>
+        <v>10.56749036743741</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.31010617438831</v>
+        <v>40.72950691091434</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>43.92004089412862</v>
+        <v>41.24117082187311</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.40363003299617</v>
+        <v>25.75042400543871</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>43.05508870948304</v>
+        <v>37.14574534584551</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>43.94509504089748</v>
+        <v>37.25024010587576</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>3.874056222520249</v>
+        <v>4.369832104091035</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.18685105075554</v>
+        <v>32.15693338832065</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.19470332999531</v>
+        <v>31.72837439755721</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.19486060416162</v>
+        <v>9.971791609910245</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>55.10354769111822</v>
+        <v>56.66001923804298</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>56.00183332947914</v>
+        <v>57.86855185291697</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>66.52482039369465</v>
+        <v>68.62125795169561</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>72.74583067207236</v>
+        <v>69.46623619870228</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.40893437810419</v>
+        <v>69.80797744814345</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.33182678772792</v>
+        <v>30.44272042623244</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>68.69424416130593</v>
+        <v>64.57520814245397</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>68.78660106773195</v>
+        <v>67.41583633368953</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>38.2590767913435</v>
+        <v>42.44832491084466</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.19494411532911</v>
+        <v>30.70273641047257</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.85793598487777</v>
+        <v>35.67071397130098</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.72182431932353</v>
+        <v>40.94860395960239</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.894063620843117</v>
+        <v>4.951924860695581</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>40.09966102396901</v>
+        <v>35.86819992913095</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.31138596773526</v>
+        <v>40.86400161071631</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.179540192931011</v>
+        <v>19.86909840915931</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.92668637718162</v>
+        <v>31.90283579606634</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.98959877004638</v>
+        <v>36.45918145737154</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-0.4978137623506846</v>
+        <v>3.095868549489172</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.18815904981797</v>
+        <v>31.01404605041177</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.78904262891903</v>
+        <v>36.0079343089094</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.1756117085985</v>
+        <v>8.202686469183394</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>54.19948149063364</v>
+        <v>52.47603089742935</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>58.30018923125573</v>
+        <v>61.34719169166897</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>65.37558147940804</v>
+        <v>66.75054340378347</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>70.18712388989482</v>
+        <v>68.2765573390552</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.09643177735576</v>
+        <v>75.13673143647472</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.86922645454932</v>
+        <v>23.44581979558615</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>66.61036394514241</v>
+        <v>60.11547421796094</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>69.53319663119252</v>
+        <v>67.79471542466064</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.30185525830385</v>
+        <v>39.29984197803471</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>19.63902558351934</v>
+        <v>17.10750276978519</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.69896256861669</v>
+        <v>22.0508658937587</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>33.89943655073772</v>
+        <v>27.23434451396838</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>4.315683619769839</v>
+        <v>1.796922810880577</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.03363805801406</v>
+        <v>31.85328673063083</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>39.88520069068352</v>
+        <v>39.23857551338085</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>9.808658144577041</v>
+        <v>12.20196614315688</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.45825796643004</v>
+        <v>32.21938911761012</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.68543320162544</v>
+        <v>39.99681805348366</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1.496134604078637</v>
+        <v>1.951413476432368</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.67441421092939</v>
+        <v>28.302453106955</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.12336189083994</v>
+        <v>37.15963196515762</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.56076823051506</v>
+        <v>4.27123443782644</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.4582766448942</v>
+        <v>47.27346922301672</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>56.77128791668503</v>
+        <v>60.58250789976488</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>51.99772946070487</v>
+        <v>52.25792058991011</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>61.24422924998433</v>
+        <v>57.5580480133701</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>71.26378323745618</v>
+        <v>68.77324646305594</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>17.52356842114712</v>
+        <v>11.03541931239022</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.89085143209314</v>
+        <v>55.54466067423392</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>69.14532573053903</v>
+        <v>66.88600301773963</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>4.003549669698305</v>
+        <v>12.21469850413287</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>21.4724232226408</v>
+        <v>15.29419038697436</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.82810686591182</v>
+        <v>29.75222252147111</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-5.552696760506461</v>
+        <v>3.395369380733772</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>14.22923445127666</v>
+        <v>18.42822946959715</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.42647566170633</v>
+        <v>21.10732136992948</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>9.535217583953894</v>
+        <v>10.22444126268447</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.16659578554171</v>
+        <v>39.56938034833776</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.58140334050869</v>
+        <v>44.43301239634553</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.47780727283513</v>
+        <v>16.47516225760425</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.61160436956094</v>
+        <v>21.15132492717596</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.57210852875265</v>
+        <v>26.60340465224372</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>7.251523274213557</v>
+        <v>19.67527120543698</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.3552210545516</v>
+        <v>16.73072558729275</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.12839751459797</v>
+        <v>34.17382642138664</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.18327720739562</v>
+        <v>10.07585815923565</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.34723052397926</v>
+        <v>26.90078479964815</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.60985642450093</v>
+        <v>38.20846980419168</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-7.301938917085959</v>
+        <v>-0.5282297391201318</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>11.00228726269743</v>
+        <v>11.22797236360167</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>19.22655916813011</v>
+        <v>16.84157476343865</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>4.204052430065385</v>
+        <v>-1.555107840925931</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.51837134099705</v>
+        <v>23.3639319753065</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4.576898941358124</v>
+        <v>16.85560554764282</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>35.58583587259893</v>
+        <v>29.04875581595449</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.94934884306193</v>
+        <v>32.33391984092152</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1.366027272243269</v>
+        <v>3.030939764910816</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.48086484120265</v>
+        <v>37.29363622198392</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>39.1573311203923</v>
+        <v>37.36220226126041</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.00101698222727</v>
+        <v>6.847106320540323</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>51.29841535235478</v>
+        <v>55.43115942954674</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>53.68391496343796</v>
+        <v>51.4414532010711</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.87507721017245</v>
+        <v>53.1906497047556</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>63.15919476245857</v>
+        <v>61.95800649886979</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>63.94552176667887</v>
+        <v>62.65280166293314</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>19.9562925744747</v>
+        <v>24.12847290101845</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>51.21176967021725</v>
+        <v>50.96185339795196</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>55.99446704542436</v>
+        <v>52.51797894894428</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>9.027466760411532</v>
+        <v>19.79407704171536</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.88957322649949</v>
+        <v>40.72680659044337</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.65424318471774</v>
+        <v>47.62707069790137</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>-0.1474886566517348</v>
+        <v>5.117989907635458</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.80107659070634</v>
+        <v>34.10118891587058</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>42.46145809031005</v>
+        <v>45.27251340921597</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>19.49091817394062</v>
+        <v>7.349023346209346</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>50.6401201847147</v>
+        <v>58.82577790923472</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>-2.259719541249911</v>
+        <v>3.302423816987822</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.68649380922323</v>
+        <v>19.83170554404975</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>34.55027974714487</v>
+        <v>28.60788828385633</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-1.029343777776084</v>
+        <v>-2.931931247865212</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>35.14687520169409</v>
+        <v>33.68184570565607</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>40.65467618045925</v>
+        <v>39.19970623276555</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>18.0473406524913</v>
+        <v>3.086840108486211</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>50.2907344800164</v>
+        <v>51.90977097257252</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>55.19976591258975</v>
+        <v>55.68644607479462</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>54.68758964806631</v>
+        <v>56.344923960567</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>62.60284759813582</v>
+        <v>61.87760929845142</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>66.21414653423808</v>
+        <v>64.22295397298217</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>11.84415610921292</v>
+        <v>7.482060094744401</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>46.35942947941211</v>
+        <v>39.73947756525953</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.56301068613257</v>
+        <v>44.19416141499886</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>2.879787286760429</v>
+        <v>12.15642995387228</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.90094733629849</v>
+        <v>34.59210180981533</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>45.71395387910042</v>
+        <v>46.15108246561311</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>-4.222580324046032</v>
+        <v>-0.4690773167597619</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.03850906455381</v>
+        <v>28.65318490884454</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>44.28326834877373</v>
+        <v>46.70111391937736</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.76674614660459</v>
+        <v>2.436584842182224</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>49.08578386680431</v>
+        <v>50.8334596304838</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-4.518874852496214</v>
+        <v>0.2844647486661209</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>24.01015575142673</v>
+        <v>15.99244889986933</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>32.44744276098238</v>
+        <v>29.53252056914337</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-1.107245000940555</v>
+        <v>-0.5438689340627185</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.1993212602</v>
+        <v>31.7233685188443</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>40.75379142859735</v>
+        <v>39.61822390589602</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>14.89609005609332</v>
+        <v>1.801415273691159</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.6905127060689</v>
+        <v>48.7415871212873</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>52.20628779654274</v>
+        <v>57.55015395370351</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.47373063533347</v>
+        <v>45.6656427867503</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>50.79721773421497</v>
+        <v>52.28423799504056</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>57.49495198677113</v>
+        <v>54.73230609405321</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>8.912439835625523</v>
+        <v>5.425659149732308</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.70741645173821</v>
+        <v>28.56938714979629</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>50.5199746065355</v>
+        <v>45.59523656911622</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2.139174422757844</v>
+        <v>6.244823262942628</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.9741461033271</v>
+        <v>32.4671893131748</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>44.21203612526249</v>
+        <v>46.97319977206897</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-3.295192323523683</v>
+        <v>0.949998880495496</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.35782474423461</v>
+        <v>28.71049748376081</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>44.34854689980968</v>
+        <v>43.17158331007209</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>11.13901504925371</v>
+        <v>1.215786768610247</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>40.24222480066612</v>
+        <v>44.49430728305096</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.84855800705018</v>
+        <v>34.42013591567469</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>20.92774003751973</v>
+        <v>25.30084269114624</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>38.15167043969258</v>
+        <v>48.83320789428119</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>43.5238268906473</v>
+        <v>55.22377219621642</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>5.718326850803155</v>
+        <v>4.418819609490694</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.15641977072633</v>
+        <v>22.82661076716792</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>33.83165730988364</v>
+        <v>36.79060373612388</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>11.14114041289062</v>
+        <v>10.89227113108992</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.13336714905685</v>
+        <v>25.47907499734396</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>37.83525488912093</v>
+        <v>38.20241272364697</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-7.63922393523389</v>
+        <v>-2.380802146838231</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>11.60294754257198</v>
+        <v>9.526565419537196</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.58946452185426</v>
+        <v>15.21777588043689</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>7.237352419487376</v>
+        <v>0.5299451837942719</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.38764978493861</v>
+        <v>27.99516511918485</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.17978958696894</v>
+        <v>43.61372070195696</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.62900111684462</v>
+        <v>28.39047678137178</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>49.50777001435917</v>
+        <v>54.18676939370586</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>55.75145245395765</v>
+        <v>57.48638982907617</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>4.107623413502001</v>
+        <v>3.223095743498195</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.62665616773785</v>
+        <v>25.10401318201015</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>40.41189899626185</v>
+        <v>35.14486214689072</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>57.46771866041401</v>
+        <v>71.69200655355297</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>57.14403653292084</v>
+        <v>65.10932286587986</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>70.50729965553623</v>
+        <v>80.59115508035744</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>75.69601609537182</v>
+        <v>86.8785288724111</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.37638736501041</v>
+        <v>23.83174320831811</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>67.31276896348587</v>
+        <v>78.65147759038003</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>72.16729421143013</v>
+        <v>82.44669691543874</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>12.19931825016093</v>
+        <v>24.55600726640088</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>48.04669967337399</v>
+        <v>47.65038271648973</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>54.79231619965135</v>
+        <v>51.53709898975686</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>4.078685046264805</v>
+        <v>6.217499566125671</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.67262668121467</v>
+        <v>43.9743388283337</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.31143187946851</v>
+        <v>48.0794400594317</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.43552550149814</v>
+        <v>9.87389411052283</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>64.61637811879439</v>
+        <v>74.95697967169249</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>71.4247459175081</v>
+        <v>80.76906620746735</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>82.64752058350804</v>
+        <v>87.57579803904724</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>93.7585704399937</v>
+        <v>99.30177133405599</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>97.16370128478771</v>
+        <v>99.3060660331125</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>32.2582964849059</v>
+        <v>33.78753214743041</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>83.26434457222854</v>
+        <v>94.1997984615079</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>90.7807939605083</v>
+        <v>93.69151347207351</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>59.9993786830091</v>
+        <v>74.96528506670829</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.54060214459658</v>
+        <v>54.83313875882149</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>64.81358964842899</v>
+        <v>66.18897971519034</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>74.23338490993727</v>
+        <v>83.26822730557394</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>16.46190363699802</v>
+        <v>13.30136457088797</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>63.29644864701066</v>
+        <v>71.31895302389077</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>72.03652097370572</v>
+        <v>78.95500068470722</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>5.062768499696606</v>
+        <v>14.1609893158602</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>43.95873626523631</v>
+        <v>41.11631095855246</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>54.11007382801073</v>
+        <v>49.53121011740133</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-0.6513977859871254</v>
+        <v>1.034385542189373</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>43.39479422643205</v>
+        <v>41.6567045360695</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>54.89027278523702</v>
+        <v>51.94670050905412</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.71932888846567</v>
+        <v>3.703849555598996</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>64.97712740149136</v>
+        <v>70.48245739516872</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>75.22289804484519</v>
+        <v>84.72252558269574</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>82.3079468850065</v>
+        <v>82.4901333214888</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>91.7191168638131</v>
+        <v>92.40757579044087</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>98.78545353199267</v>
+        <v>99.83193189866233</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.00565436157948</v>
+        <v>19.89201876503195</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>82.45204196840683</v>
+        <v>85.98315551103441</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>93.3283894735022</v>
+        <v>90.67865643369058</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>53.6032606373704</v>
+        <v>70.04956675602928</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.63864876142345</v>
+        <v>37.88069273650571</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>49.7451742572286</v>
+        <v>51.16689246380203</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>63.52127292763511</v>
+        <v>64.86628588461996</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.53617595537923</v>
+        <v>10.20804975576519</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>52.18005015009358</v>
+        <v>60.51737428511014</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>66.40504739717586</v>
+        <v>73.02251353506011</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>7.270068767480534</v>
+        <v>9.929563025659352</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.58434527714581</v>
+        <v>42.64466421504457</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>57.04830735402787</v>
+        <v>55.39191774446502</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>1.924128011781928</v>
+        <v>4.471577410674829</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.7819659507341</v>
+        <v>41.9421042835681</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>58.29351488600584</v>
+        <v>53.16746794456158</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.93730520847717</v>
+        <v>3.675804232900337</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.5707911640613</v>
+        <v>63.81089459165054</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>72.17860714865589</v>
+        <v>83.55392539925855</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>65.60606920727166</v>
+        <v>70.19026590234435</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>80.02463252022794</v>
+        <v>86.96867414598718</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>94.43674146536216</v>
+        <v>102.0999618917229</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>18.13379302265895</v>
+        <v>15.23549432677871</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>69.09459354921908</v>
+        <v>80.67052391403107</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>88.67146201503898</v>
+        <v>91.81461414811696</v>
       </c>
     </row>
   </sheetData>
